--- a/TIMES-NZ/Sets-TIMES-NZ.xlsx
+++ b/TIMES-NZ/Sets-TIMES-NZ.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\TIMES-NZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A84EA2-5801-4A01-A588-A4AEC890E796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0174683B-7B62-4877-AE8B-20CB3CE7C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="4" r:id="rId1"/>
     <sheet name="SetsEditor- Comm" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SetsEditor- Proc'!$D$2:$F$75</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="265">
   <si>
     <t>~TFM_CSets</t>
   </si>
@@ -68,12 +71,6 @@
     <t>c_neg_andor</t>
   </si>
   <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Or</t>
-  </si>
-  <si>
     <t>~TFM_PSets</t>
   </si>
   <si>
@@ -558,6 +555,285 @@
   </si>
   <si>
     <t>EXP*</t>
+  </si>
+  <si>
+    <t>ss_Chemicals</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>CHM*</t>
+  </si>
+  <si>
+    <t>ss_Construction</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>CNST*</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>ss_Dairy</t>
+  </si>
+  <si>
+    <t>ss_Food</t>
+  </si>
+  <si>
+    <t>DARY*</t>
+  </si>
+  <si>
+    <t>FOOD*</t>
+  </si>
+  <si>
+    <t>ss_Steel</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>IIS*</t>
+  </si>
+  <si>
+    <t>ss_Paper</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>PLP*</t>
+  </si>
+  <si>
+    <t>METAL*</t>
+  </si>
+  <si>
+    <t>MNNG*</t>
+  </si>
+  <si>
+    <t>MNRL*</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Minerals</t>
+  </si>
+  <si>
+    <t>s_Industry</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>IND*</t>
+  </si>
+  <si>
+    <t>s_Power</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>ELE,-STG</t>
+  </si>
+  <si>
+    <t>s_Storage</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>MEAT*</t>
+  </si>
+  <si>
+    <t>MTHOL*</t>
+  </si>
+  <si>
+    <t>OTH-T</t>
+  </si>
+  <si>
+    <t>REFI*</t>
+  </si>
+  <si>
+    <t>UREA*</t>
+  </si>
+  <si>
+    <t>WOOD*</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Refining</t>
+  </si>
+  <si>
+    <t>Wood Prod Mfg</t>
+  </si>
+  <si>
+    <t>T*car</t>
+  </si>
+  <si>
+    <t>T*Ship</t>
+  </si>
+  <si>
+    <t>T*Trk</t>
+  </si>
+  <si>
+    <t>T*Rail</t>
+  </si>
+  <si>
+    <t>T*Jet*</t>
+  </si>
+  <si>
+    <t>T*Bus</t>
+  </si>
+  <si>
+    <t>T*Mcy</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Dairy Cattle Farming</t>
+  </si>
+  <si>
+    <t>Livestock</t>
+  </si>
+  <si>
+    <t>Horticulture</t>
+  </si>
+  <si>
+    <t>Indoor cropping</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>ADCF*</t>
+  </si>
+  <si>
+    <t>ALIV*</t>
+  </si>
+  <si>
+    <t>AHOR*</t>
+  </si>
+  <si>
+    <t>AIND*</t>
+  </si>
+  <si>
+    <t>AFOR*</t>
+  </si>
+  <si>
+    <t>AFIS*</t>
+  </si>
+  <si>
+    <t>AOTH*</t>
+  </si>
+  <si>
+    <t>C_EDU-*</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>C_HLTH*</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>C_OFFC*</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>C_WSR-*</t>
+  </si>
+  <si>
+    <t>WSR</t>
+  </si>
+  <si>
+    <t>C_OTH-*</t>
+  </si>
+  <si>
+    <t>R_DDW*</t>
+  </si>
+  <si>
+    <t>R_JDW*</t>
+  </si>
+  <si>
+    <t>Detached</t>
+  </si>
+  <si>
+    <t>Attached</t>
+  </si>
+  <si>
+    <t>E_StgBatt</t>
+  </si>
+  <si>
+    <t>E_StgPump</t>
+  </si>
+  <si>
+    <t>Batt Stg</t>
+  </si>
+  <si>
+    <t>Phydro Stg</t>
+  </si>
+  <si>
+    <t>EBAT*</t>
+  </si>
+  <si>
+    <t>EHYD*</t>
+  </si>
+  <si>
+    <t>Other Ind</t>
+  </si>
+  <si>
+    <t>Other Agri</t>
+  </si>
+  <si>
+    <t>Other Com</t>
   </si>
 </sst>
 </file>
@@ -607,9 +883,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -925,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D50E68-2F35-4E45-A3AC-EBA1E28C139C}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,21 +1225,21 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -971,19 +1248,19 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -992,13 +1269,13 @@
         <v>E_Bio</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1007,13 +1284,13 @@
         <v>E_Biogas</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1022,13 +1299,13 @@
         <v>E_Coal</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1037,13 +1314,13 @@
         <v>E_Geothermal</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1052,13 +1329,13 @@
         <v>E_Hydro</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1067,13 +1344,13 @@
         <v>E_NaturalGas</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1082,649 +1359,971 @@
         <v>E_Solar</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f>"E_"&amp;SUBSTITUTE(F12," ","")</f>
+        <v>E_Waste</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f>"E_"&amp;SUBSTITUTE(F13," ","")</f>
+        <v>E_Wind</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f>"eu_"&amp;F14</f>
+        <v>eu_Aviation</v>
+      </c>
+      <c r="F14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f>"eu_"&amp;F15</f>
+        <v>eu_Bus</v>
+      </c>
+      <c r="F15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f>"eu_"&amp;F16</f>
+        <v>eu_Cars</v>
+      </c>
+      <c r="F16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f>"eu_"&amp;F24</f>
+        <v>eu_Motorcycle</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f>"eu_"&amp;F27</f>
+        <v>eu_Rail</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f>"eu_"&amp;F29</f>
+        <v>eu_Ships</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f>"eu_"&amp;F32</f>
+        <v>eu_Trucks</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
         <v>169</v>
       </c>
-      <c r="K9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" t="str">
-        <f>"E_"&amp;SUBSTITUTE(F10," ","")</f>
-        <v>E_Waste</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E11" t="str">
-        <f>"E_"&amp;SUBSTITUTE(F11," ","")</f>
-        <v>E_Wind</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" t="s">
         <v>149</v>
       </c>
-      <c r="F26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="H43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" t="s">
+        <v>203</v>
+      </c>
+      <c r="G45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
         <v>27</v>
       </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="F46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F47," ","")</f>
+        <v>ss_Attached</v>
+      </c>
+      <c r="F47" t="s">
+        <v>255</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
         <v>172</v>
       </c>
-      <c r="G29" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F48" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" t="s">
-        <v>31</v>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F51," ","")</f>
+        <v>ss_DairyCattleFarming</v>
+      </c>
+      <c r="F51" t="s">
+        <v>230</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F52," ","")</f>
+        <v>ss_Detached</v>
+      </c>
+      <c r="F52" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F53," ","")</f>
+        <v>ss_Education</v>
+      </c>
+      <c r="F53" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F54," ","")</f>
+        <v>ss_Fishing</v>
+      </c>
+      <c r="F54" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" t="s">
+        <v>179</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F56," ","")</f>
+        <v>ss_Forestry</v>
+      </c>
+      <c r="F56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F57," ","")</f>
+        <v>ss_Healthcare</v>
+      </c>
+      <c r="F57" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F58," ","")</f>
+        <v>ss_Horticulture</v>
+      </c>
+      <c r="F58" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F59," ","")</f>
+        <v>ss_Indoorcropping</v>
+      </c>
+      <c r="F59" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F60," ","")</f>
+        <v>ss_Livestock</v>
+      </c>
+      <c r="F60" t="s">
+        <v>231</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F61," ","")</f>
+        <v>ss_Meat</v>
+      </c>
+      <c r="F61" t="s">
+        <v>211</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F62," ","")</f>
+        <v>ss_Metals</v>
+      </c>
+      <c r="F62" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F63," ","")</f>
+        <v>ss_Methanol</v>
+      </c>
+      <c r="F63" t="s">
+        <v>212</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F64," ","")</f>
+        <v>ss_Minerals</v>
+      </c>
+      <c r="F64" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F65," ","")</f>
+        <v>ss_Mining</v>
+      </c>
+      <c r="F65" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F66," ","")</f>
+        <v>ss_Office</v>
+      </c>
+      <c r="F66" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F67," ","")</f>
+        <v>ss_OtherInd</v>
+      </c>
+      <c r="F67" t="s">
+        <v>262</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F68," ","")</f>
+        <v>ss_OtherAgri</v>
+      </c>
+      <c r="F68" t="s">
+        <v>263</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F69," ","")</f>
+        <v>ss_OtherCom</v>
+      </c>
+      <c r="F69" t="s">
+        <v>264</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" t="s">
+        <v>188</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E71" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F71," ","")</f>
+        <v>ss_Refining</v>
+      </c>
+      <c r="F71" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" t="s">
+        <v>185</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F73," ","")</f>
+        <v>ss_Urea</v>
+      </c>
+      <c r="F73" t="s">
+        <v>213</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F74," ","")</f>
+        <v>ss_WoodProdMfg</v>
+      </c>
+      <c r="F74" t="s">
+        <v>215</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <f>"ss_"&amp;SUBSTITUTE(F75," ","")</f>
+        <v>ss_WSR</v>
+      </c>
+      <c r="F75" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K34">
-    <sortCondition ref="E3:E34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K75">
+    <sortCondition ref="E3:E75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1734,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85657ED7-7FD5-4BF0-AAAD-04AD86A24527}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B39"/>
     </sheetView>
   </sheetViews>
@@ -1787,17 +2386,17 @@
         <v>Coal</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" t="str">
         <f>"*"&amp;N3</f>
         <v>*COA</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1810,17 +2409,17 @@
         <v>Diesel</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D39" si="2">"*"&amp;N4</f>
         <v>*DSL</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1833,17 +2432,17 @@
         <v xml:space="preserve">Electricity </v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
         <v>*ELC</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1856,17 +2455,17 @@
         <v>Fuel Oil</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
         <v>*FOL</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1879,17 +2478,17 @@
         <v>Geothermal</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
         <v>*GEO</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1902,17 +2501,17 @@
         <v>Hydrogen</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
         <v>*H2R</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1925,17 +2524,17 @@
         <v>LPG</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
         <v>*LPG</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1948,17 +2547,17 @@
         <v>Natural Gas</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
         <v>*NGA</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1971,17 +2570,17 @@
         <v>Petrol</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
         <v>*PET</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1994,17 +2593,17 @@
         <v>Pellet</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
         <v>*PLT</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2017,17 +2616,17 @@
         <v>Wood</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
         <v>*WOD</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2040,17 +2639,17 @@
         <v>Waste</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
         <v>*WST</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2063,17 +2662,17 @@
         <v>Manure</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
         <v>*MNR</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2086,17 +2685,17 @@
         <v>Biogas</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
         <v>*BIG</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2109,17 +2708,17 @@
         <v>Bioliquid</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
         <v>*BIL</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2132,17 +2731,17 @@
         <v>Lignite</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
         <v>*COL</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2155,17 +2754,17 @@
         <v>CO2 to CCS</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
         <v>*seq</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2178,17 +2777,17 @@
         <v>CO2</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
         <v>*CO2</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2201,17 +2800,17 @@
         <v>Drop-In Diesel</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
         <v>*DID</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2224,17 +2823,17 @@
         <v>Drop-In Jet</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
         <v>*DIJ</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2247,17 +2846,17 @@
         <v>Electricity Production</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
         <v>*LCD</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2270,17 +2869,17 @@
         <v>Electricity Production</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
         <v>*CDD</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2293,17 +2892,17 @@
         <v>Electricity Production</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
         <v>*-HV</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2316,17 +2915,17 @@
         <v>Hydro</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
         <v>*HYD</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2339,17 +2938,17 @@
         <v>Electricity Production</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
         <v>*-MV</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2362,17 +2961,17 @@
         <v>Oil</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
         <v>*OIL</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2385,17 +2984,17 @@
         <v>Solar</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
         <v>*SOL</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2408,17 +3007,17 @@
         <v>Tidal</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
         <v>*TID</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2431,17 +3030,17 @@
         <v>Uranium</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
         <v>*URN</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2454,17 +3053,17 @@
         <v>Wind</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
         <v>*WIN</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2477,17 +3076,17 @@
         <v>Green Hydrogen Green Hydrogen Fuel</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
         <v>*H2C</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2500,17 +3099,17 @@
         <v>Green Hydrogen Green Hydrogen Fuel</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
         <v>*H2D</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2523,17 +3122,17 @@
         <v>Jet Fuel</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
         <v>*JET</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2546,17 +3145,17 @@
         <v>LNG</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
         <v>*LNG</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2569,17 +3168,17 @@
         <v>Crude Oil (domestic)</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
         <v>*ILD</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2592,17 +3191,17 @@
         <v>Crude Oil (imported)</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
         <v>*ILI</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2615,17 +3214,17 @@
         <v>Other Oil</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
         <v>*OTH</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
